--- a/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -321,9 +321,6 @@
     <t>capacityType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.natureCapacite : JDV-J187-NatureCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:capacityType.id</t>
   </si>
   <si>
@@ -390,15 +387,15 @@
 </t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.natureCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:capacityStatus</t>
   </si>
   <si>
     <t>capacityStatus</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.statutCapacite : JDV-J188-TypeStatutCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:capacityStatus.id</t>
   </si>
   <si>
@@ -414,15 +411,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J188-TypeStatutCapacite-ROR/FHIR/JDV-J188-TypeStatutCapacite-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.statutCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:temporalityCapacity</t>
   </si>
   <si>
     <t>temporalityCapacity</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.temporaliteCapacite : JDV-J189-TemporaliteCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:temporalityCapacity.id</t>
   </si>
   <si>
@@ -438,13 +435,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J189-TemporaliteCapacite-ROR/FHIR/JDV-J189-TemporaliteCapacite-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.temporaliteCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:nbCapacity</t>
   </si>
   <si>
     <t>nbCapacity</t>
-  </si>
-  <si>
-    <t>CapaciteAccueilOperationnelle.nombreCapacite</t>
   </si>
   <si>
     <t>Extension.extension:nbCapacity.id</t>
@@ -463,15 +460,15 @@
 </t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.nombreCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:capacitySourceType</t>
   </si>
   <si>
     <t>capacitySourceType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeSourceCapacite : JDV-J193-TypeSourceCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:capacitySourceType.id</t>
   </si>
   <si>
@@ -487,15 +484,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J193-TypeSourceCapacite-ROR/FHIR/JDV-J193-TypeSourceCapacite-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.typeSourceCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:genderCapacityAvailable</t>
   </si>
   <si>
     <t>genderCapacityAvailable</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo : JDV-J190-GenreCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:genderCapacityAvailable.id</t>
   </si>
   <si>
@@ -511,13 +508,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J190-GenreCapacite-ROR/FHIR/JDV-J190-GenreCapacite-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo</t>
+  </si>
+  <si>
     <t>Extension.extension:capacityUpdateDate</t>
   </si>
   <si>
     <t>capacityUpdateDate</t>
-  </si>
-  <si>
-    <t>CapaciteAccueilOperationnelle.dateMAJCapacite</t>
   </si>
   <si>
     <t>Extension.extension:capacityUpdateDate.id</t>
@@ -536,15 +533,15 @@
 </t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.dateMAJCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:capacityClosingType</t>
   </si>
   <si>
     <t>capacityClosingType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite : JDV-J191-TypeFermetureCapacite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:capacityClosingType.id</t>
   </si>
   <si>
@@ -560,15 +557,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J191-TypeFermetureCapacite-ROR/FHIR/JDV-J191-TypeFermetureCapacite-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite</t>
+  </si>
+  <si>
     <t>Extension.extension:additionalBedType</t>
   </si>
   <si>
     <t>additionalBedType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire : JDV-J192-TypeLitSupplementaire-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:additionalBedType.id</t>
   </si>
   <si>
@@ -584,15 +581,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J192-TypeLitSupplementaire-ROR/FHIR/JDV-J192-TypeLitSupplementaire-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire</t>
+  </si>
+  <si>
     <t>Extension.extension:crisisType</t>
   </si>
   <si>
     <t>crisisType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeCrise : JDV-J194-TypeCrise-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:crisisType.id</t>
   </si>
   <si>
@@ -608,15 +605,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J194-TypeCrise-ROR/FHIR/JDV-J194-TypeCrise-ROR</t>
   </si>
   <si>
+    <t>CapaciteAccueilOperationnelle.typeCrise</t>
+  </si>
+  <si>
     <t>Extension.extension:temporaryAssignement</t>
   </si>
   <si>
     <t>temporaryAssignement</t>
   </si>
   <si>
-    <t>CapacitePriseCharge.affectationTemporaire : JDV-J195-AffectationTemporaire-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:temporaryAssignement.id</t>
   </si>
   <si>
@@ -630,6 +627,9 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J195-AffectationTemporaire-ROR/FHIR/JDV-J195-AffectationTemporaire-ROR</t>
+  </si>
+  <si>
+    <t>CapacitePriseCharge.affectationTemporaire</t>
   </si>
   <si>
     <t>base64Binary
@@ -989,7 +989,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="88.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="83.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1531,15 +1531,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1642,10 +1642,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1748,10 +1748,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1774,16 +1774,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1833,22 +1833,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1882,13 +1882,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1915,29 +1915,29 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1949,13 +1949,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2063,15 +2063,15 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2174,10 +2174,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2280,10 +2280,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2306,16 +2306,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2365,22 +2365,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2414,13 +2414,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2447,11 +2447,11 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2469,7 +2469,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2481,13 +2481,13 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2595,15 +2595,15 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2706,10 +2706,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2812,10 +2812,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2838,16 +2838,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2897,22 +2897,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2946,13 +2946,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2979,11 +2979,11 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3001,7 +3001,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3013,13 +3013,13 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -3127,15 +3127,15 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3238,10 +3238,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3344,10 +3344,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3370,16 +3370,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3429,22 +3429,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3478,13 +3478,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3535,7 +3535,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3547,13 +3547,13 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3661,15 +3661,15 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3772,10 +3772,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3878,10 +3878,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3904,16 +3904,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3963,22 +3963,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4012,13 +4012,13 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4045,11 +4045,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4067,7 +4067,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4079,13 +4079,13 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -4193,15 +4193,15 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4304,10 +4304,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4410,10 +4410,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4436,16 +4436,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4495,22 +4495,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4544,13 +4544,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4577,11 +4577,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -4599,7 +4599,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -4611,13 +4611,13 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -4725,15 +4725,15 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4836,10 +4836,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4942,10 +4942,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4968,16 +4968,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5027,22 +5027,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5076,13 +5076,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5133,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5145,13 +5145,13 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -5259,15 +5259,15 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5370,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5476,10 +5476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5502,16 +5502,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5561,22 +5561,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5610,13 +5610,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5643,11 +5643,11 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -5665,7 +5665,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -5677,13 +5677,13 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45">
@@ -5791,15 +5791,15 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5902,10 +5902,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6008,10 +6008,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6034,16 +6034,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6093,22 +6093,22 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6142,13 +6142,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6175,11 +6175,11 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6197,7 +6197,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6209,13 +6209,13 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -6323,15 +6323,15 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6434,10 +6434,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6540,10 +6540,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6566,16 +6566,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -6625,22 +6625,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6674,13 +6674,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6707,11 +6707,11 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -6729,7 +6729,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -6741,13 +6741,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55">
@@ -6855,15 +6855,15 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6966,10 +6966,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7072,10 +7072,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7098,16 +7098,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7157,22 +7157,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7180,10 +7180,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7206,13 +7206,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7239,11 +7239,11 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -7261,7 +7261,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7273,21 +7273,21 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7310,16 +7310,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7369,22 +7369,22 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7421,10 +7421,10 @@
         <v>202</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7475,7 +7475,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -7487,10 +7487,10 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
